--- a/Alberto/HojasCalculos/DatosPacientes.xlsx
+++ b/Alberto/HojasCalculos/DatosPacientes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t xml:space="preserve">DNI</t>
   </si>
@@ -162,16 +162,19 @@
     <t xml:space="preserve">Modificar</t>
   </si>
   <si>
-    <t xml:space="preserve">45678912C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">98765432B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Av. de Carlos Haya 12, Málaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345678A </t>
+    <t xml:space="preserve">11223344K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C/ Febrero 30, Málaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34567890C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01234567J </t>
   </si>
   <si>
     <t xml:space="preserve">Teléfono</t>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t xml:space="preserve">ListaPacientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonia.knorr@e.com</t>
   </si>
 </sst>
 </file>
@@ -1890,13 +1896,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1915,32 +1922,32 @@
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>607123456</v>
+        <v>677829310</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +1969,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1978,13 +1985,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1993,10 +2000,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>6</v>
@@ -2049,14 +2056,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
